--- a/mobipy/domain/accountancy/spending.xlsx
+++ b/mobipy/domain/accountancy/spending.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldocao/Google Drive/Documents/Personnel/Administratifs/Logements/2016 03 Paris Jaures/mobipy/mobipy/domain/accountancy/time/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldocao/Google Drive/Documents/Personnel/Administratifs/Logements/2016 03 Paris Jaures/mobipy/mobipy/domain/accountancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fixed" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -21,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,12 +344,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mobipy/domain/accountancy/spending.xlsx
+++ b/mobipy/domain/accountancy/spending.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="1" r:id="rId1"/>
+    <sheet name="recurrency" sheetId="2" r:id="rId2"/>
+    <sheet name="recurrency_type" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fixed!$D$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,12 +29,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t>auto_increment</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>achat</t>
+  </si>
+  <si>
+    <t>frais_notaire</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>blomet</t>
+  </si>
+  <si>
+    <t>travaux</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>taxe_fonciere</t>
+  </si>
+  <si>
+    <t>annee</t>
+  </si>
+  <si>
+    <t>charge_copropriete</t>
+  </si>
+  <si>
+    <t>etiolles_houteau</t>
+  </si>
+  <si>
+    <t>etiolles_velux</t>
+  </si>
+  <si>
+    <t>taxe_habitation</t>
+  </si>
+  <si>
+    <t>travaux_toiture</t>
+  </si>
+  <si>
+    <t>achat_comble</t>
   </si>
 </sst>
 </file>
@@ -65,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,25 +410,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>33000</v>
+      </c>
+      <c r="C2">
+        <v>78000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>33000</v>
+      </c>
+      <c r="C3">
+        <v>3270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40544</v>
+      </c>
+      <c r="C4">
+        <v>10511</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40909</v>
+      </c>
+      <c r="C5">
+        <v>10511</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41275</v>
+      </c>
+      <c r="C6">
+        <v>5755</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41640</v>
+      </c>
+      <c r="C7">
+        <v>6072</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42247</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42247</v>
+      </c>
+      <c r="C9">
+        <v>6378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:D10"/>
+  <sortState ref="A2:E9">
+    <sortCondition ref="B2:B9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41640</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41640</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
